--- a/GenAGC.xlsx
+++ b/GenAGC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,6 +913,326 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GenAGC.xlsx
+++ b/GenAGC.xlsx
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
